--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N2">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O2">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P2">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q2">
-        <v>1.409174032256667</v>
+        <v>2.94248395346</v>
       </c>
       <c r="R2">
-        <v>12.68256629031</v>
+        <v>26.48235558114</v>
       </c>
       <c r="S2">
-        <v>0.006095611037976681</v>
+        <v>0.01576429933290356</v>
       </c>
       <c r="T2">
-        <v>0.006095611037976679</v>
+        <v>0.01576429933290356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>24.538206</v>
       </c>
       <c r="O3">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P3">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q3">
-        <v>61.21992028229001</v>
+        <v>58.09399004054801</v>
       </c>
       <c r="R3">
-        <v>550.9792825406101</v>
+        <v>522.845910364932</v>
       </c>
       <c r="S3">
-        <v>0.2648167034551271</v>
+        <v>0.3112373976976275</v>
       </c>
       <c r="T3">
-        <v>0.2648167034551271</v>
+        <v>0.3112373976976275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N4">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O4">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P4">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q4">
-        <v>0.01673566622</v>
+        <v>10.58685067725533</v>
       </c>
       <c r="R4">
-        <v>0.15062099598</v>
+        <v>95.281656095298</v>
       </c>
       <c r="S4">
-        <v>7.239284105679903E-05</v>
+        <v>0.05671884221246432</v>
       </c>
       <c r="T4">
-        <v>7.239284105679903E-05</v>
+        <v>0.05671884221246432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H5">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N5">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O5">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P5">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q5">
-        <v>25.08992717373334</v>
+        <v>0.14979117666</v>
       </c>
       <c r="R5">
-        <v>225.8093445636</v>
+        <v>1.34812058994</v>
       </c>
       <c r="S5">
-        <v>0.1085305530200004</v>
+        <v>0.0008025032535927399</v>
       </c>
       <c r="T5">
-        <v>0.1085305530200004</v>
+        <v>0.0008025032535927399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H6">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I6">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J6">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N6">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O6">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P6">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q6">
-        <v>0.8831307277216667</v>
+        <v>0.1229911747666667</v>
       </c>
       <c r="R6">
-        <v>7.948176549495</v>
+        <v>1.1069205729</v>
       </c>
       <c r="S6">
-        <v>0.003820125327782134</v>
+        <v>0.0006589227757885703</v>
       </c>
       <c r="T6">
-        <v>0.003820125327782133</v>
+        <v>0.0006589227757885701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
         <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N7">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O7">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P7">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q7">
-        <v>1.562649494353333</v>
+        <v>3.4385282849</v>
       </c>
       <c r="R7">
-        <v>14.06384544918</v>
+        <v>30.9467545641</v>
       </c>
       <c r="S7">
-        <v>0.006759494064061719</v>
+        <v>0.01842184698546258</v>
       </c>
       <c r="T7">
-        <v>0.006759494064061717</v>
+        <v>0.01842184698546258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
         <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>24.538206</v>
       </c>
       <c r="O8">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P8">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q8">
-        <v>67.88748251362</v>
+        <v>67.88748251362001</v>
       </c>
       <c r="R8">
-        <v>610.9873426225801</v>
+        <v>610.9873426225802</v>
       </c>
       <c r="S8">
-        <v>0.2936583262805248</v>
+        <v>0.3637058390899772</v>
       </c>
       <c r="T8">
-        <v>0.2936583262805247</v>
+        <v>0.3637058390899771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
         <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N9">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O9">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P9">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q9">
-        <v>0.01855837515999999</v>
+        <v>12.37158335526334</v>
       </c>
       <c r="R9">
-        <v>0.16702537644</v>
+        <v>111.34425019737</v>
       </c>
       <c r="S9">
-        <v>8.027726447034309E-05</v>
+        <v>0.06628051208401937</v>
       </c>
       <c r="T9">
-        <v>8.027726447034309E-05</v>
+        <v>0.06628051208401939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H10">
         <v>24.89943</v>
       </c>
       <c r="I10">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J10">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N10">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O10">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P10">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q10">
-        <v>27.82251241786667</v>
+        <v>0.1750429929</v>
       </c>
       <c r="R10">
-        <v>250.4026117608</v>
+        <v>1.5753869361</v>
       </c>
       <c r="S10">
-        <v>0.1203507940938989</v>
+        <v>0.0009377893575114191</v>
       </c>
       <c r="T10">
-        <v>0.1203507940938989</v>
+        <v>0.0009377893575114191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H11">
         <v>24.89943</v>
       </c>
       <c r="I11">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J11">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N11">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O11">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P11">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q11">
-        <v>0.9793139481233332</v>
+        <v>0.1437250431666667</v>
       </c>
       <c r="R11">
-        <v>8.813825533109998</v>
+        <v>1.2935253885</v>
       </c>
       <c r="S11">
-        <v>0.004236181461749947</v>
+        <v>0.0007700040638962893</v>
       </c>
       <c r="T11">
-        <v>0.004236181461749946</v>
+        <v>0.0007700040638962893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H12">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I12">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J12">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N12">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O12">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P12">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q12">
-        <v>0.09287942261399999</v>
+        <v>0.1058756762066667</v>
       </c>
       <c r="R12">
-        <v>0.8359148035259999</v>
+        <v>0.9528810858599999</v>
       </c>
       <c r="S12">
-        <v>0.0004017650203077824</v>
+        <v>0.0005672268322254958</v>
       </c>
       <c r="T12">
-        <v>0.0004017650203077823</v>
+        <v>0.0005672268322254958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H13">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I13">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J13">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>24.538206</v>
       </c>
       <c r="O13">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P13">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q13">
-        <v>4.035038056434001</v>
+        <v>2.090322522185334</v>
       </c>
       <c r="R13">
-        <v>36.315342507906</v>
+        <v>18.812902699668</v>
       </c>
       <c r="S13">
-        <v>0.01745421215012508</v>
+        <v>0.01119886139167947</v>
       </c>
       <c r="T13">
-        <v>0.01745421215012508</v>
+        <v>0.01119886139167946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H14">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I14">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J14">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N14">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O14">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P14">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q14">
-        <v>0.001103056812</v>
+        <v>0.3809332496224445</v>
       </c>
       <c r="R14">
-        <v>0.009927511307999999</v>
+        <v>3.428399246602</v>
       </c>
       <c r="S14">
-        <v>4.771451307525865E-06</v>
+        <v>0.002040842318219807</v>
       </c>
       <c r="T14">
-        <v>4.771451307525865E-06</v>
+        <v>0.002040842318219807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1349,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H15">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I15">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J15">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N15">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O15">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P15">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q15">
-        <v>1.65369066984</v>
+        <v>0.005389746339999999</v>
       </c>
       <c r="R15">
-        <v>14.88321602856</v>
+        <v>0.04850771706</v>
       </c>
       <c r="S15">
-        <v>0.007153307448004222</v>
+        <v>2.887545895782111E-05</v>
       </c>
       <c r="T15">
-        <v>0.007153307448004222</v>
+        <v>2.887545895782111E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H16">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I16">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J16">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N16">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O16">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P16">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q16">
-        <v>0.05820762390299999</v>
+        <v>0.004425435788888888</v>
       </c>
       <c r="R16">
-        <v>0.523868615127</v>
+        <v>0.0398289221</v>
       </c>
       <c r="S16">
-        <v>0.0002517865264585693</v>
+        <v>2.370918433473695E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002517865264585693</v>
+        <v>2.370918433473695E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H17">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I17">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J17">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N17">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O17">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P17">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q17">
-        <v>0.3844812002573332</v>
+        <v>0.5769591732433333</v>
       </c>
       <c r="R17">
-        <v>3.460330802315999</v>
+        <v>5.19263255919</v>
       </c>
       <c r="S17">
-        <v>0.00166313584733745</v>
+        <v>0.00309104731027588</v>
       </c>
       <c r="T17">
-        <v>0.00166313584733745</v>
+        <v>0.00309104731027588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H18">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I18">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J18">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>24.538206</v>
       </c>
       <c r="O18">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P18">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q18">
-        <v>16.703336771044</v>
+        <v>11.39100875122467</v>
       </c>
       <c r="R18">
-        <v>150.330030939396</v>
+        <v>102.519078761022</v>
       </c>
       <c r="S18">
-        <v>0.07225299477706572</v>
+        <v>0.06102710312043535</v>
       </c>
       <c r="T18">
-        <v>0.07225299477706572</v>
+        <v>0.06102710312043535</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H19">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I19">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J19">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N19">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O19">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P19">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q19">
-        <v>0.004566184791999999</v>
+        <v>2.075858597909222</v>
       </c>
       <c r="R19">
-        <v>0.04109566312799999</v>
+        <v>18.682727381183</v>
       </c>
       <c r="S19">
-        <v>1.975177357972122E-05</v>
+        <v>0.01112137120467302</v>
       </c>
       <c r="T19">
-        <v>1.975177357972122E-05</v>
+        <v>0.01112137120467303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H20">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I20">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J20">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N20">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O20">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P20">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q20">
-        <v>6.845574140106666</v>
+        <v>0.02937089711</v>
       </c>
       <c r="R20">
-        <v>61.61016726096</v>
+        <v>0.26433807399</v>
       </c>
       <c r="S20">
-        <v>0.02961164223477657</v>
+        <v>0.0001573539978607215</v>
       </c>
       <c r="T20">
-        <v>0.02961164223477658</v>
+        <v>0.0001573539978607215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H21">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I21">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J21">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N21">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O21">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P21">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q21">
-        <v>0.2409547397313333</v>
+        <v>0.02411598079444445</v>
       </c>
       <c r="R21">
-        <v>2.168592657581999</v>
+        <v>0.21704382715</v>
       </c>
       <c r="S21">
-        <v>0.001042288842639979</v>
+        <v>0.0001292008880806778</v>
       </c>
       <c r="T21">
-        <v>0.001042288842639979</v>
+        <v>0.0001292008880806778</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H22">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I22">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J22">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N22">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O22">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P22">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q22">
-        <v>0.1747168734786667</v>
+        <v>0.4722787236866667</v>
       </c>
       <c r="R22">
-        <v>1.572451861308</v>
+        <v>4.25050851318</v>
       </c>
       <c r="S22">
-        <v>0.0007557661992903909</v>
+        <v>0.002530223881086486</v>
       </c>
       <c r="T22">
-        <v>0.0007557661992903908</v>
+        <v>0.002530223881086486</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H23">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I23">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J23">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>24.538206</v>
       </c>
       <c r="O23">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P23">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q23">
-        <v>7.590370544372002</v>
+        <v>9.324283803809335</v>
       </c>
       <c r="R23">
-        <v>68.31333489934801</v>
+        <v>83.91855423428402</v>
       </c>
       <c r="S23">
-        <v>0.03283337998963339</v>
+        <v>0.04995466526685792</v>
       </c>
       <c r="T23">
-        <v>0.03283337998963338</v>
+        <v>0.04995466526685791</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H24">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I24">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J24">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N24">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O24">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P24">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q24">
-        <v>0.002074976696</v>
+        <v>1.699225689858445</v>
       </c>
       <c r="R24">
-        <v>0.018674790264</v>
+        <v>15.293031208726</v>
       </c>
       <c r="S24">
-        <v>8.975648544578226E-06</v>
+        <v>0.009103567881003985</v>
       </c>
       <c r="T24">
-        <v>8.975648544578226E-06</v>
+        <v>0.009103567881003987</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H25">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I25">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J25">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N25">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O25">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P25">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q25">
-        <v>3.110782296053334</v>
+        <v>0.02404199542</v>
       </c>
       <c r="R25">
-        <v>27.99704066448</v>
+        <v>0.21637795878</v>
       </c>
       <c r="S25">
-        <v>0.01345619381745135</v>
+        <v>0.0001288045129066933</v>
       </c>
       <c r="T25">
-        <v>0.01345619381745135</v>
+        <v>0.0001288045129066933</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H26">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I26">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J26">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N26">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O26">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P26">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q26">
-        <v>0.1094952334406667</v>
+        <v>0.01974050358888889</v>
       </c>
       <c r="R26">
-        <v>0.985457100966</v>
+        <v>0.1776645323</v>
       </c>
       <c r="S26">
-        <v>0.000473639407403722</v>
+        <v>0.0001057593558638015</v>
       </c>
       <c r="T26">
-        <v>0.000473639407403722</v>
+        <v>0.0001057593558638015</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H27">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I27">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J27">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N27">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O27">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P27">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q27">
-        <v>0.05218546655044443</v>
+        <v>0.10307908061</v>
       </c>
       <c r="R27">
-        <v>0.4696691989539999</v>
+        <v>0.9277117254899999</v>
       </c>
       <c r="S27">
-        <v>0.0002257367072095697</v>
+        <v>0.0005522441268662726</v>
       </c>
       <c r="T27">
-        <v>0.0002257367072095697</v>
+        <v>0.0005522441268662726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H28">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I28">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J28">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>24.538206</v>
       </c>
       <c r="O28">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P28">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q28">
-        <v>2.267136655219333</v>
+        <v>2.035108832218</v>
       </c>
       <c r="R28">
-        <v>20.404229896974</v>
+        <v>18.315979489962</v>
       </c>
       <c r="S28">
-        <v>0.00980686764290261</v>
+        <v>0.01090305514441151</v>
       </c>
       <c r="T28">
-        <v>0.009806867642902608</v>
+        <v>0.01090305514441151</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,46 +2217,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H29">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I29">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J29">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N29">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O29">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P29">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q29">
-        <v>0.0006197662813333332</v>
+        <v>0.3708712950103333</v>
       </c>
       <c r="R29">
-        <v>0.005577896531999999</v>
+        <v>3.337841655093</v>
       </c>
       <c r="S29">
-        <v>2.680899661066937E-06</v>
+        <v>0.001986935596250128</v>
       </c>
       <c r="T29">
-        <v>2.680899661066937E-06</v>
+        <v>0.001986935596250128</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,46 +2279,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H30">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I30">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J30">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N30">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O30">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P30">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q30">
-        <v>0.9291468089155555</v>
+        <v>0.00524738181</v>
       </c>
       <c r="R30">
-        <v>8.36232128024</v>
+        <v>0.04722643629</v>
       </c>
       <c r="S30">
-        <v>0.004019175357110811</v>
+        <v>2.811274381619081E-05</v>
       </c>
       <c r="T30">
-        <v>0.004019175357110811</v>
+        <v>2.811274381619081E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H31">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I31">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J31">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N31">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O31">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P31">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q31">
-        <v>0.03270468231477777</v>
+        <v>0.004308542516666666</v>
       </c>
       <c r="R31">
-        <v>0.294342140833</v>
+        <v>0.03877688265</v>
       </c>
       <c r="S31">
-        <v>0.0001414694125410691</v>
+        <v>2.308293095070511E-05</v>
       </c>
       <c r="T31">
-        <v>0.000141469412541069</v>
+        <v>2.308293095070512E-05</v>
       </c>
     </row>
   </sheetData>
